--- a/data/chms_analysis_information.xlsx
+++ b/data/chms_analysis_information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pollo\Dropbox\Tyler\Work\Shiny\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F55E7B-88BA-4F59-B50E-28A79A7AE302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B647F-04D4-4019-B266-0C9730F4E7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2209,8 +2209,8 @@
   <dimension ref="A1:P564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,13 +3942,13 @@
         <v>81</v>
       </c>
       <c r="K39" s="1">
-        <v>99.999949999999998</v>
+        <v>999.95</v>
       </c>
       <c r="L39" s="1">
-        <v>99.999960000000002</v>
+        <v>999.96</v>
       </c>
       <c r="M39" s="1">
-        <v>99.999989999999997</v>
+        <v>999.99</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
